--- a/films.xlsx
+++ b/films.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozank\OneDrive\Masaüstü\GamePlatform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozank\OneDrive\Masaüstü\Film Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_8FF2F9280019128C6C18286EA25DE45E97467648" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{39540378-CA2F-4761-85C1-24E3D71ABAB3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -6592,8 +6592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1553" workbookViewId="0">
-      <selection activeCell="A1572" sqref="A1572"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
